--- a/biology/Botanique/Cneorum_tricoccon/Cneorum_tricoccon.xlsx
+++ b/biology/Botanique/Cneorum_tricoccon/Cneorum_tricoccon.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cneorum tricoccon
 La Camélée à trois coques (Cneorum tricoccon) est une espèce de plantes à fleurs de la famille des Rutaceae. C'est un arbrisseau méditerranéen à feuilles persistantes, un peu semblables à celles de l'olivier, à petites fleurs jaunes et à fruits rouges formant trois coques (d'où le qualificatif tricoccon).
@@ -512,7 +524,9 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Autrefois principal représentant de la petite famille des Cnéoracées, cet arbrisseau est maintenant classé dans les Rutacées.
 </t>
@@ -543,7 +557,9 @@
           <t>Autres noms vernaculaires</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Garoupe, Petit olivier, Bois de la Dive.
 </t>
@@ -574,7 +590,9 @@
           <t>Écologie et habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Cet arbrisseau pousse dans l'Ouest du bassin méditerranéen, de l'Espagne à l'Italie et pratiquement toujours sur sol calcaire et dans les lieux rocailleux faiblement boisés (garrigue). Il est fréquemment associé au romarin ou au nerprun alaterne.
 Floraison : mars à juin
@@ -609,12 +627,87 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Morphologie générale et végétative
-Arbrisseau de petite taille (inférieure à 1 mètre), très ramifié, à branches érigées. Feuilles persistantes, coriaces, sessiles, alternes, lancéolées à linéaires, pratiquement glabres, toujours ascendantes à érigées.
-Morphologie florale
-Fleurs solitaires à l'aisselle des feuilles supérieures, de petite taille (0,5 à 1 cm). De couleur jaune, elles ont un calice à 3 ou 4 sépales et une corolle à 3 ou 4 pétales. 3 ou 4 étamines, ovaire supère à 3 ou 4 loges, style à 3 ou 4 stigmates.
-Fruit et graines
-Le fruit est une drupe composée en principe de trois coques rappelant la capsule des Euphorbiacées. Chaque coque contient deux graines. De couleur rouge, les fruits deviennent en général noirs à maturité.
+          <t>Morphologie générale et végétative</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Arbrisseau de petite taille (inférieure à 1 mètre), très ramifié, à branches érigées. Feuilles persistantes, coriaces, sessiles, alternes, lancéolées à linéaires, pratiquement glabres, toujours ascendantes à érigées.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Cneorum_tricoccon</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cneorum_tricoccon</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Morphologie florale</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fleurs solitaires à l'aisselle des feuilles supérieures, de petite taille (0,5 à 1 cm). De couleur jaune, elles ont un calice à 3 ou 4 sépales et une corolle à 3 ou 4 pétales. 3 ou 4 étamines, ovaire supère à 3 ou 4 loges, style à 3 ou 4 stigmates.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Cneorum_tricoccon</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cneorum_tricoccon</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Fruit et graines</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le fruit est une drupe composée en principe de trois coques rappelant la capsule des Euphorbiacées. Chaque coque contient deux graines. De couleur rouge, les fruits deviennent en général noirs à maturité.
 </t>
         </is>
       </c>
